--- a/sys_horror.xlsx
+++ b/sys_horror.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cude</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>makima</t>

--- a/sys_horror.xlsx
+++ b/sys_horror.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="horror" sheetId="1" r:id="rId1"/>
+    <sheet name="HORROR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
